--- a/Quartille stats/Poligrafo_detailed_stats/BD_results_detailed.xlsx
+++ b/Quartille stats/Poligrafo_detailed_stats/BD_results_detailed.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karan\Desktop\FakeNews-App\Quartille stats\Poligrafo_detailed_stats\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B2995B-83C0-473F-A846-C97248115672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="114">
   <si>
     <t>Label</t>
   </si>
@@ -350,13 +356,19 @@
   </si>
   <si>
     <t>21.8</t>
+  </si>
+  <si>
+    <t>pos_contrast</t>
+  </si>
+  <si>
+    <t>neg_contrast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,11 +405,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -439,7 +459,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,9 +491,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -505,6 +543,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -680,14 +736,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -784,8 +842,14 @@
       <c r="AF1" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -814,7 +878,7 @@
         <v>10</v>
       </c>
       <c r="J2">
-        <v>5.623</v>
+        <v>5.6230000000000002</v>
       </c>
       <c r="K2">
         <v>1.1653</v>
@@ -829,10 +893,10 @@
         <v>4.83</v>
       </c>
       <c r="O2">
-        <v>4.123</v>
+        <v>4.1230000000000002</v>
       </c>
       <c r="P2">
-        <v>0.7528</v>
+        <v>0.75280000000000002</v>
       </c>
       <c r="Q2">
         <v>5.8</v>
@@ -844,10 +908,10 @@
         <v>2.9</v>
       </c>
       <c r="T2">
-        <v>5.478</v>
+        <v>5.4779999999999998</v>
       </c>
       <c r="U2">
-        <v>0.6811</v>
+        <v>0.68110000000000004</v>
       </c>
       <c r="V2">
         <v>6.61</v>
@@ -868,10 +932,10 @@
         <v>5.5</v>
       </c>
       <c r="AB2">
-        <v>37.2</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="AC2">
-        <v>39.3</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="AD2">
         <v>17.2</v>
@@ -882,8 +946,14 @@
       <c r="AF2" t="s">
         <v>36</v>
       </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -912,10 +982,10 @@
         <v>16</v>
       </c>
       <c r="J3">
-        <v>5.544</v>
+        <v>5.5439999999999996</v>
       </c>
       <c r="K3">
-        <v>1.1218</v>
+        <v>1.1217999999999999</v>
       </c>
       <c r="L3">
         <v>7.22</v>
@@ -924,13 +994,13 @@
         <v>2.33</v>
       </c>
       <c r="N3">
-        <v>4.89</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="O3">
         <v>4.117</v>
       </c>
       <c r="P3">
-        <v>0.7647</v>
+        <v>0.76470000000000005</v>
       </c>
       <c r="Q3">
         <v>5.79</v>
@@ -945,7 +1015,7 @@
         <v>5.649</v>
       </c>
       <c r="U3">
-        <v>0.6183999999999999</v>
+        <v>0.61839999999999995</v>
       </c>
       <c r="V3">
         <v>6.86</v>
@@ -980,8 +1050,14 @@
       <c r="AF3" t="s">
         <v>39</v>
       </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1010,10 +1086,10 @@
         <v>8</v>
       </c>
       <c r="J4">
-        <v>5.309</v>
+        <v>5.3090000000000002</v>
       </c>
       <c r="K4">
-        <v>0.9211</v>
+        <v>0.92110000000000003</v>
       </c>
       <c r="L4">
         <v>7.86</v>
@@ -1022,13 +1098,13 @@
         <v>3.71</v>
       </c>
       <c r="N4">
-        <v>4.15</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="O4">
-        <v>3.973</v>
+        <v>3.9729999999999999</v>
       </c>
       <c r="P4">
-        <v>0.6813</v>
+        <v>0.68130000000000002</v>
       </c>
       <c r="Q4">
         <v>6.26</v>
@@ -1040,10 +1116,10 @@
         <v>3.26</v>
       </c>
       <c r="T4">
-        <v>5.736</v>
+        <v>5.7359999999999998</v>
       </c>
       <c r="U4">
-        <v>0.9281</v>
+        <v>0.92810000000000004</v>
       </c>
       <c r="V4">
         <v>7.11</v>
@@ -1067,7 +1143,7 @@
         <v>27.3</v>
       </c>
       <c r="AC4">
-        <v>54.50000000000001</v>
+        <v>54.500000000000007</v>
       </c>
       <c r="AD4">
         <v>11.4</v>
@@ -1078,8 +1154,14 @@
       <c r="AF4" t="s">
         <v>42</v>
       </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1108,25 +1190,25 @@
         <v>8</v>
       </c>
       <c r="J5">
-        <v>5.214</v>
+        <v>5.2140000000000004</v>
       </c>
       <c r="K5">
-        <v>1.0254</v>
+        <v>1.0254000000000001</v>
       </c>
       <c r="L5">
         <v>7.16</v>
       </c>
       <c r="M5">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="N5">
-        <v>5.11</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="O5">
-        <v>3.841</v>
+        <v>3.8410000000000002</v>
       </c>
       <c r="P5">
-        <v>0.5482</v>
+        <v>0.54820000000000002</v>
       </c>
       <c r="Q5">
         <v>5.36</v>
@@ -1141,13 +1223,13 @@
         <v>5.827</v>
       </c>
       <c r="U5">
-        <v>0.8771</v>
+        <v>0.87709999999999999</v>
       </c>
       <c r="V5">
         <v>7.39</v>
       </c>
       <c r="W5">
-        <v>2.47</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="X5">
         <v>4.92</v>
@@ -1176,8 +1258,14 @@
       <c r="AF5" t="s">
         <v>45</v>
       </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1206,10 +1294,10 @@
         <v>21</v>
       </c>
       <c r="J6">
-        <v>5.148</v>
+        <v>5.1479999999999997</v>
       </c>
       <c r="K6">
-        <v>1.3015</v>
+        <v>1.3015000000000001</v>
       </c>
       <c r="L6">
         <v>7.5</v>
@@ -1221,10 +1309,10 @@
         <v>5.78</v>
       </c>
       <c r="O6">
-        <v>4.015</v>
+        <v>4.0149999999999997</v>
       </c>
       <c r="P6">
-        <v>0.6830000000000001</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="Q6">
         <v>5.45</v>
@@ -1239,7 +1327,7 @@
         <v>5.383</v>
       </c>
       <c r="U6">
-        <v>0.9442</v>
+        <v>0.94420000000000004</v>
       </c>
       <c r="V6">
         <v>7.33</v>
@@ -1257,7 +1345,7 @@
         <v>46</v>
       </c>
       <c r="AA6">
-        <v>5.800000000000001</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="AB6">
         <v>23.7</v>
@@ -1274,8 +1362,14 @@
       <c r="AF6" t="s">
         <v>48</v>
       </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1304,10 +1398,10 @@
         <v>7</v>
       </c>
       <c r="J7">
-        <v>5.294</v>
+        <v>5.2939999999999996</v>
       </c>
       <c r="K7">
-        <v>0.7498</v>
+        <v>0.74980000000000002</v>
       </c>
       <c r="L7">
         <v>6.79</v>
@@ -1319,7 +1413,7 @@
         <v>3.01</v>
       </c>
       <c r="O7">
-        <v>3.983</v>
+        <v>3.9830000000000001</v>
       </c>
       <c r="P7">
         <v>0.6724</v>
@@ -1361,7 +1455,7 @@
         <v>32.9</v>
       </c>
       <c r="AC7">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AD7">
         <v>5.2</v>
@@ -1372,8 +1466,14 @@
       <c r="AF7" t="s">
         <v>51</v>
       </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1381,7 +1481,7 @@
         <v>50</v>
       </c>
       <c r="C8">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="D8">
         <v>33.33</v>
@@ -1402,7 +1502,7 @@
         <v>30</v>
       </c>
       <c r="J8">
-        <v>5.377</v>
+        <v>5.3769999999999998</v>
       </c>
       <c r="K8">
         <v>1.2173</v>
@@ -1411,7 +1511,7 @@
         <v>7.68</v>
       </c>
       <c r="M8">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="N8">
         <v>5.63</v>
@@ -1420,7 +1520,7 @@
         <v>4.141</v>
       </c>
       <c r="P8">
-        <v>0.7352</v>
+        <v>0.73519999999999996</v>
       </c>
       <c r="Q8">
         <v>6.31</v>
@@ -1432,10 +1532,10 @@
         <v>3.33</v>
       </c>
       <c r="T8">
-        <v>5.567</v>
+        <v>5.5670000000000002</v>
       </c>
       <c r="U8">
-        <v>0.9116</v>
+        <v>0.91159999999999997</v>
       </c>
       <c r="V8">
         <v>7.22</v>
@@ -1444,7 +1544,7 @@
         <v>2.58</v>
       </c>
       <c r="X8">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="Y8">
         <v>5.4</v>
@@ -1453,7 +1553,7 @@
         <v>52</v>
       </c>
       <c r="AA8">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AB8">
         <v>23.9</v>
@@ -1462,7 +1562,7 @@
         <v>46.3</v>
       </c>
       <c r="AD8">
-        <v>8.799999999999999</v>
+        <v>8.7999999999999989</v>
       </c>
       <c r="AE8" t="s">
         <v>38</v>
@@ -1470,13 +1570,19 @@
       <c r="AF8" t="s">
         <v>53</v>
       </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
       <c r="B9">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="C9">
         <v>41.67</v>
@@ -1500,22 +1606,22 @@
         <v>31</v>
       </c>
       <c r="J9">
-        <v>5.119</v>
+        <v>5.1189999999999998</v>
       </c>
       <c r="K9">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L9">
         <v>7.73</v>
       </c>
       <c r="M9">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N9">
         <v>5.43</v>
       </c>
       <c r="O9">
-        <v>4.143</v>
+        <v>4.1429999999999998</v>
       </c>
       <c r="P9">
         <v>0.8397</v>
@@ -1533,7 +1639,7 @@
         <v>5.375</v>
       </c>
       <c r="U9">
-        <v>0.8868</v>
+        <v>0.88680000000000003</v>
       </c>
       <c r="V9">
         <v>7.29</v>
@@ -1554,7 +1660,7 @@
         <v>5.2</v>
       </c>
       <c r="AB9">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AC9">
         <v>37.6</v>
@@ -1568,8 +1674,14 @@
       <c r="AF9" t="s">
         <v>56</v>
       </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1598,16 +1710,16 @@
         <v>11</v>
       </c>
       <c r="J10">
-        <v>5.324</v>
+        <v>5.3239999999999998</v>
       </c>
       <c r="K10">
-        <v>1.0996</v>
+        <v>1.0995999999999999</v>
       </c>
       <c r="L10">
         <v>7.76</v>
       </c>
       <c r="M10">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="N10">
         <v>5.48</v>
@@ -1616,7 +1728,7 @@
         <v>4.03</v>
       </c>
       <c r="P10">
-        <v>0.6471</v>
+        <v>0.64710000000000001</v>
       </c>
       <c r="Q10">
         <v>5.79</v>
@@ -1628,10 +1740,10 @@
         <v>2.94</v>
       </c>
       <c r="T10">
-        <v>5.427</v>
+        <v>5.4269999999999996</v>
       </c>
       <c r="U10">
-        <v>0.6924</v>
+        <v>0.69240000000000002</v>
       </c>
       <c r="V10">
         <v>6.54</v>
@@ -1666,13 +1778,19 @@
       <c r="AF10" t="s">
         <v>59</v>
       </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
       <c r="B11">
-        <v>85.70999999999999</v>
+        <v>85.71</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1696,7 +1814,7 @@
         <v>17</v>
       </c>
       <c r="J11">
-        <v>5.455</v>
+        <v>5.4550000000000001</v>
       </c>
       <c r="K11">
         <v>1.07</v>
@@ -1711,10 +1829,10 @@
         <v>5.46</v>
       </c>
       <c r="O11">
-        <v>4.227</v>
+        <v>4.2270000000000003</v>
       </c>
       <c r="P11">
-        <v>0.9063</v>
+        <v>0.90629999999999999</v>
       </c>
       <c r="Q11">
         <v>6.26</v>
@@ -1726,16 +1844,16 @@
         <v>4.07</v>
       </c>
       <c r="T11">
-        <v>5.597</v>
+        <v>5.5970000000000004</v>
       </c>
       <c r="U11">
-        <v>0.7955</v>
+        <v>0.79549999999999998</v>
       </c>
       <c r="V11">
         <v>7.26</v>
       </c>
       <c r="W11">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="X11">
         <v>4.83</v>
@@ -1753,7 +1871,7 @@
         <v>27.2</v>
       </c>
       <c r="AC11">
-        <v>58.59999999999999</v>
+        <v>58.599999999999987</v>
       </c>
       <c r="AD11">
         <v>19.8</v>
@@ -1764,8 +1882,14 @@
       <c r="AF11" t="s">
         <v>62</v>
       </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1794,7 +1918,7 @@
         <v>24</v>
       </c>
       <c r="J12">
-        <v>5.542</v>
+        <v>5.5419999999999998</v>
       </c>
       <c r="K12">
         <v>1.0382</v>
@@ -1809,10 +1933,10 @@
         <v>4.33</v>
       </c>
       <c r="O12">
-        <v>3.921</v>
+        <v>3.9209999999999998</v>
       </c>
       <c r="P12">
-        <v>0.6497000000000001</v>
+        <v>0.64970000000000006</v>
       </c>
       <c r="Q12">
         <v>5.83</v>
@@ -1827,7 +1951,7 @@
         <v>5.556</v>
       </c>
       <c r="U12">
-        <v>0.8627</v>
+        <v>0.86270000000000002</v>
       </c>
       <c r="V12">
         <v>7.35</v>
@@ -1839,7 +1963,7 @@
         <v>4.3</v>
       </c>
       <c r="Y12">
-        <v>5.600000000000001</v>
+        <v>5.6000000000000014</v>
       </c>
       <c r="Z12" t="s">
         <v>63</v>
@@ -1854,7 +1978,7 @@
         <v>45.5</v>
       </c>
       <c r="AD12">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="AE12" t="s">
         <v>64</v>
@@ -1862,8 +1986,14 @@
       <c r="AF12" t="s">
         <v>65</v>
       </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1895,19 +2025,19 @@
         <v>5.101</v>
       </c>
       <c r="K13">
-        <v>1.1645</v>
+        <v>1.1645000000000001</v>
       </c>
       <c r="L13">
         <v>7.52</v>
       </c>
       <c r="M13">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="N13">
         <v>4.99</v>
       </c>
       <c r="O13">
-        <v>4.237</v>
+        <v>4.2370000000000001</v>
       </c>
       <c r="P13">
         <v>0.7097</v>
@@ -1925,7 +2055,7 @@
         <v>5.306</v>
       </c>
       <c r="U13">
-        <v>1.0107</v>
+        <v>1.0106999999999999</v>
       </c>
       <c r="V13">
         <v>7</v>
@@ -1952,7 +2082,7 @@
         <v>53.6</v>
       </c>
       <c r="AD13">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="AE13" t="s">
         <v>67</v>
@@ -1960,8 +2090,14 @@
       <c r="AF13" t="s">
         <v>68</v>
       </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1990,7 +2126,7 @@
         <v>23</v>
       </c>
       <c r="J14">
-        <v>5.205</v>
+        <v>5.2050000000000001</v>
       </c>
       <c r="K14">
         <v>1.3244</v>
@@ -2005,10 +2141,10 @@
         <v>5.66</v>
       </c>
       <c r="O14">
-        <v>4.238</v>
+        <v>4.2380000000000004</v>
       </c>
       <c r="P14">
-        <v>0.8885</v>
+        <v>0.88849999999999996</v>
       </c>
       <c r="Q14">
         <v>6.71</v>
@@ -2020,10 +2156,10 @@
         <v>4.21</v>
       </c>
       <c r="T14">
-        <v>5.439</v>
+        <v>5.4390000000000001</v>
       </c>
       <c r="U14">
-        <v>0.9883</v>
+        <v>0.98829999999999996</v>
       </c>
       <c r="V14">
         <v>7.21</v>
@@ -2041,10 +2177,10 @@
         <v>69</v>
       </c>
       <c r="AA14">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AB14">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="AC14">
         <v>44.6</v>
@@ -2058,8 +2194,14 @@
       <c r="AF14" t="s">
         <v>71</v>
       </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -2088,10 +2230,10 @@
         <v>57</v>
       </c>
       <c r="J15">
-        <v>5.254</v>
+        <v>5.2539999999999996</v>
       </c>
       <c r="K15">
-        <v>1.1608</v>
+        <v>1.1608000000000001</v>
       </c>
       <c r="L15">
         <v>7.79</v>
@@ -2103,10 +2245,10 @@
         <v>5.89</v>
       </c>
       <c r="O15">
-        <v>4.045</v>
+        <v>4.0449999999999999</v>
       </c>
       <c r="P15">
-        <v>0.9146</v>
+        <v>0.91459999999999997</v>
       </c>
       <c r="Q15">
         <v>6.6</v>
@@ -2118,10 +2260,10 @@
         <v>4.41</v>
       </c>
       <c r="T15">
-        <v>5.206</v>
+        <v>5.2060000000000004</v>
       </c>
       <c r="U15">
-        <v>0.8381999999999999</v>
+        <v>0.83819999999999995</v>
       </c>
       <c r="V15">
         <v>7.63</v>
@@ -2130,7 +2272,7 @@
         <v>2.9</v>
       </c>
       <c r="X15">
-        <v>4.73</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="Y15">
         <v>3.8</v>
@@ -2145,7 +2287,7 @@
         <v>28.9</v>
       </c>
       <c r="AC15">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="AD15">
         <v>8.4</v>
@@ -2156,8 +2298,14 @@
       <c r="AF15" t="s">
         <v>74</v>
       </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -2177,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>36.84</v>
+        <v>36.840000000000003</v>
       </c>
       <c r="H16">
         <v>60</v>
@@ -2186,7 +2334,7 @@
         <v>84</v>
       </c>
       <c r="J16">
-        <v>4.979</v>
+        <v>4.9790000000000001</v>
       </c>
       <c r="K16">
         <v>1.3122</v>
@@ -2201,10 +2349,10 @@
         <v>5.84</v>
       </c>
       <c r="O16">
-        <v>4.378</v>
+        <v>4.3780000000000001</v>
       </c>
       <c r="P16">
-        <v>1.0369</v>
+        <v>1.0368999999999999</v>
       </c>
       <c r="Q16">
         <v>7.37</v>
@@ -2216,10 +2364,10 @@
         <v>5.18</v>
       </c>
       <c r="T16">
-        <v>5.253</v>
+        <v>5.2530000000000001</v>
       </c>
       <c r="U16">
-        <v>1.0287</v>
+        <v>1.0286999999999999</v>
       </c>
       <c r="V16">
         <v>7.42</v>
@@ -2237,7 +2385,7 @@
         <v>72</v>
       </c>
       <c r="AA16">
-        <v>5.600000000000001</v>
+        <v>5.6000000000000014</v>
       </c>
       <c r="AB16">
         <v>30.4</v>
@@ -2254,8 +2402,14 @@
       <c r="AF16" t="s">
         <v>76</v>
       </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2284,7 +2438,7 @@
         <v>35</v>
       </c>
       <c r="J17">
-        <v>5.623</v>
+        <v>5.6230000000000002</v>
       </c>
       <c r="K17">
         <v>1.0206</v>
@@ -2293,13 +2447,13 @@
         <v>7.68</v>
       </c>
       <c r="M17">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="N17">
         <v>5.13</v>
       </c>
       <c r="O17">
-        <v>4.071</v>
+        <v>4.0709999999999997</v>
       </c>
       <c r="P17">
         <v>0.7641</v>
@@ -2314,10 +2468,10 @@
         <v>3.89</v>
       </c>
       <c r="T17">
-        <v>5.612</v>
+        <v>5.6120000000000001</v>
       </c>
       <c r="U17">
-        <v>0.7148</v>
+        <v>0.71479999999999999</v>
       </c>
       <c r="V17">
         <v>6.96</v>
@@ -2326,7 +2480,7 @@
         <v>2.56</v>
       </c>
       <c r="X17">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Y17">
         <v>3.8</v>
@@ -2352,8 +2506,14 @@
       <c r="AF17" t="s">
         <v>79</v>
       </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2385,7 +2545,7 @@
         <v>5.65</v>
       </c>
       <c r="K18">
-        <v>1.3597</v>
+        <v>1.3596999999999999</v>
       </c>
       <c r="L18">
         <v>8.02</v>
@@ -2400,7 +2560,7 @@
         <v>4.431</v>
       </c>
       <c r="P18">
-        <v>1.0237</v>
+        <v>1.0237000000000001</v>
       </c>
       <c r="Q18">
         <v>7.19</v>
@@ -2415,7 +2575,7 @@
         <v>5.67</v>
       </c>
       <c r="U18">
-        <v>0.8572</v>
+        <v>0.85719999999999996</v>
       </c>
       <c r="V18">
         <v>7.26</v>
@@ -2433,7 +2593,7 @@
         <v>80</v>
       </c>
       <c r="AA18">
-        <v>4.100000000000001</v>
+        <v>4.1000000000000014</v>
       </c>
       <c r="AB18">
         <v>29.3</v>
@@ -2450,8 +2610,14 @@
       <c r="AF18" t="s">
         <v>82</v>
       </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2480,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="J19">
-        <v>5.707</v>
+        <v>5.7069999999999999</v>
       </c>
       <c r="K19">
         <v>1.0844</v>
@@ -2495,10 +2661,10 @@
         <v>5.47</v>
       </c>
       <c r="O19">
-        <v>4.225</v>
+        <v>4.2249999999999996</v>
       </c>
       <c r="P19">
-        <v>0.797</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="Q19">
         <v>5.95</v>
@@ -2510,10 +2676,10 @@
         <v>3.33</v>
       </c>
       <c r="T19">
-        <v>5.747</v>
+        <v>5.7469999999999999</v>
       </c>
       <c r="U19">
-        <v>0.6927</v>
+        <v>0.69269999999999998</v>
       </c>
       <c r="V19">
         <v>7.42</v>
@@ -2537,7 +2703,7 @@
         <v>23.7</v>
       </c>
       <c r="AC19">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="AD19">
         <v>13.2</v>
@@ -2548,8 +2714,14 @@
       <c r="AF19" t="s">
         <v>84</v>
       </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2578,40 +2750,40 @@
         <v>22</v>
       </c>
       <c r="J20">
-        <v>5.363</v>
+        <v>5.3630000000000004</v>
       </c>
       <c r="K20">
         <v>1.1515</v>
       </c>
       <c r="L20">
-        <v>8.210000000000001</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="M20">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N20">
         <v>5.91</v>
       </c>
       <c r="O20">
-        <v>4.244</v>
+        <v>4.2439999999999998</v>
       </c>
       <c r="P20">
-        <v>0.8265</v>
+        <v>0.82650000000000001</v>
       </c>
       <c r="Q20">
         <v>6.72</v>
       </c>
       <c r="R20">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="S20">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="T20">
-        <v>5.204</v>
+        <v>5.2039999999999997</v>
       </c>
       <c r="U20">
-        <v>0.7593</v>
+        <v>0.75929999999999997</v>
       </c>
       <c r="V20">
         <v>6.9</v>
@@ -2629,7 +2801,7 @@
         <v>85</v>
       </c>
       <c r="AA20">
-        <v>4.100000000000001</v>
+        <v>4.1000000000000014</v>
       </c>
       <c r="AB20">
         <v>25.3</v>
@@ -2646,8 +2818,14 @@
       <c r="AF20" t="s">
         <v>87</v>
       </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -2676,10 +2854,10 @@
         <v>21</v>
       </c>
       <c r="J21">
-        <v>5.115</v>
+        <v>5.1150000000000002</v>
       </c>
       <c r="K21">
-        <v>1.2687</v>
+        <v>1.2686999999999999</v>
       </c>
       <c r="L21">
         <v>7.33</v>
@@ -2691,10 +2869,10 @@
         <v>5.62</v>
       </c>
       <c r="O21">
-        <v>4.185</v>
+        <v>4.1849999999999996</v>
       </c>
       <c r="P21">
-        <v>0.8473000000000001</v>
+        <v>0.84730000000000005</v>
       </c>
       <c r="Q21">
         <v>6.72</v>
@@ -2703,13 +2881,13 @@
         <v>2.57</v>
       </c>
       <c r="S21">
-        <v>4.15</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="T21">
         <v>5.359</v>
       </c>
       <c r="U21">
-        <v>0.9019</v>
+        <v>0.90190000000000003</v>
       </c>
       <c r="V21">
         <v>7.17</v>
@@ -2727,7 +2905,7 @@
         <v>41</v>
       </c>
       <c r="AA21">
-        <v>4.100000000000001</v>
+        <v>4.1000000000000014</v>
       </c>
       <c r="AB21">
         <v>33.5</v>
@@ -2744,8 +2922,14 @@
       <c r="AF21" t="s">
         <v>89</v>
       </c>
+      <c r="AG21">
+        <v>2</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2756,7 +2940,7 @@
         <v>66.67</v>
       </c>
       <c r="D22">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2765,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2774,10 +2958,10 @@
         <v>25</v>
       </c>
       <c r="J22">
-        <v>4.963</v>
+        <v>4.9630000000000001</v>
       </c>
       <c r="K22">
-        <v>1.1662</v>
+        <v>1.1661999999999999</v>
       </c>
       <c r="L22">
         <v>6.68</v>
@@ -2786,13 +2970,13 @@
         <v>2.33</v>
       </c>
       <c r="N22">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="O22">
-        <v>4.323</v>
+        <v>4.3230000000000004</v>
       </c>
       <c r="P22">
-        <v>1.0691</v>
+        <v>1.0690999999999999</v>
       </c>
       <c r="Q22">
         <v>7.15</v>
@@ -2804,10 +2988,10 @@
         <v>4.3</v>
       </c>
       <c r="T22">
-        <v>5.261</v>
+        <v>5.2610000000000001</v>
       </c>
       <c r="U22">
-        <v>1.0489</v>
+        <v>1.0488999999999999</v>
       </c>
       <c r="V22">
         <v>7.16</v>
@@ -2816,7 +3000,7 @@
         <v>2.56</v>
       </c>
       <c r="X22">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Y22">
         <v>3.8</v>
@@ -2825,7 +3009,7 @@
         <v>72</v>
       </c>
       <c r="AA22">
-        <v>5.899999999999999</v>
+        <v>5.8999999999999986</v>
       </c>
       <c r="AB22">
         <v>32.4</v>
@@ -2834,7 +3018,7 @@
         <v>40</v>
       </c>
       <c r="AD22">
-        <v>9.700000000000001</v>
+        <v>9.7000000000000011</v>
       </c>
       <c r="AE22" t="s">
         <v>90</v>
@@ -2842,8 +3026,14 @@
       <c r="AF22" t="s">
         <v>56</v>
       </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2875,7 +3065,7 @@
         <v>5.431</v>
       </c>
       <c r="K23">
-        <v>1.3322</v>
+        <v>1.3322000000000001</v>
       </c>
       <c r="L23">
         <v>7.95</v>
@@ -2884,13 +3074,13 @@
         <v>3.85</v>
       </c>
       <c r="N23">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O23">
-        <v>4.401</v>
+        <v>4.4009999999999998</v>
       </c>
       <c r="P23">
-        <v>0.9464</v>
+        <v>0.94640000000000002</v>
       </c>
       <c r="Q23">
         <v>6.27</v>
@@ -2902,10 +3092,10 @@
         <v>3.65</v>
       </c>
       <c r="T23">
-        <v>5.822</v>
+        <v>5.8220000000000001</v>
       </c>
       <c r="U23">
-        <v>0.7146</v>
+        <v>0.71460000000000001</v>
       </c>
       <c r="V23">
         <v>7</v>
@@ -2929,7 +3119,7 @@
         <v>21.8</v>
       </c>
       <c r="AC23">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="AD23">
         <v>10.9</v>
@@ -2940,8 +3130,14 @@
       <c r="AF23" t="s">
         <v>44</v>
       </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -2970,7 +3166,7 @@
         <v>7</v>
       </c>
       <c r="J24">
-        <v>5.246</v>
+        <v>5.2460000000000004</v>
       </c>
       <c r="K24">
         <v>1.2036</v>
@@ -2979,7 +3175,7 @@
         <v>7.73</v>
       </c>
       <c r="M24">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="N24">
         <v>5.2</v>
@@ -2988,7 +3184,7 @@
         <v>4.202</v>
       </c>
       <c r="P24">
-        <v>0.6798999999999999</v>
+        <v>0.67989999999999995</v>
       </c>
       <c r="Q24">
         <v>5.8</v>
@@ -2997,13 +3193,13 @@
         <v>3.25</v>
       </c>
       <c r="S24">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="T24">
         <v>5.444</v>
       </c>
       <c r="U24">
-        <v>0.6803</v>
+        <v>0.68030000000000002</v>
       </c>
       <c r="V24">
         <v>6.61</v>
@@ -3038,8 +3234,14 @@
       <c r="AF24" t="s">
         <v>93</v>
       </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3068,10 +3270,10 @@
         <v>12</v>
       </c>
       <c r="J25">
-        <v>5.584</v>
+        <v>5.5839999999999996</v>
       </c>
       <c r="K25">
-        <v>1.1417</v>
+        <v>1.1416999999999999</v>
       </c>
       <c r="L25">
         <v>7.38</v>
@@ -3083,7 +3285,7 @@
         <v>5.67</v>
       </c>
       <c r="O25">
-        <v>4.365</v>
+        <v>4.3650000000000002</v>
       </c>
       <c r="P25">
         <v>0.7964</v>
@@ -3098,10 +3300,10 @@
         <v>4.13</v>
       </c>
       <c r="T25">
-        <v>5.594</v>
+        <v>5.5940000000000003</v>
       </c>
       <c r="U25">
-        <v>0.9172</v>
+        <v>0.91720000000000002</v>
       </c>
       <c r="V25">
         <v>7.42</v>
@@ -3122,13 +3324,13 @@
         <v>8.4</v>
       </c>
       <c r="AB25">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="AC25">
         <v>47.7</v>
       </c>
       <c r="AD25">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="AE25" t="s">
         <v>95</v>
@@ -3136,8 +3338,14 @@
       <c r="AF25" t="s">
         <v>96</v>
       </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -3166,10 +3374,10 @@
         <v>8</v>
       </c>
       <c r="J26">
-        <v>4.644</v>
+        <v>4.6440000000000001</v>
       </c>
       <c r="K26">
-        <v>1.4931</v>
+        <v>1.4931000000000001</v>
       </c>
       <c r="L26">
         <v>6.9</v>
@@ -3181,22 +3389,22 @@
         <v>5.19</v>
       </c>
       <c r="O26">
-        <v>4.169</v>
+        <v>4.1689999999999996</v>
       </c>
       <c r="P26">
-        <v>0.8310999999999999</v>
+        <v>0.83109999999999995</v>
       </c>
       <c r="Q26">
         <v>6.02</v>
       </c>
       <c r="R26">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="S26">
         <v>3.47</v>
       </c>
       <c r="T26">
-        <v>5.041</v>
+        <v>5.0410000000000004</v>
       </c>
       <c r="U26">
         <v>1.0528</v>
@@ -3217,10 +3425,10 @@
         <v>97</v>
       </c>
       <c r="AA26">
-        <v>4.399999999999999</v>
+        <v>4.3999999999999986</v>
       </c>
       <c r="AB26">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="AC26">
         <v>42.6</v>
@@ -3234,8 +3442,14 @@
       <c r="AF26" t="s">
         <v>86</v>
       </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -3267,22 +3481,22 @@
         <v>5.343</v>
       </c>
       <c r="K27">
-        <v>1.1578</v>
+        <v>1.1577999999999999</v>
       </c>
       <c r="L27">
         <v>7.75</v>
       </c>
       <c r="M27">
-        <v>2.47</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="N27">
         <v>5.28</v>
       </c>
       <c r="O27">
-        <v>4.168</v>
+        <v>4.1680000000000001</v>
       </c>
       <c r="P27">
-        <v>0.8822</v>
+        <v>0.88219999999999998</v>
       </c>
       <c r="Q27">
         <v>7.11</v>
@@ -3291,13 +3505,13 @@
         <v>3.09</v>
       </c>
       <c r="S27">
-        <v>4.02</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="T27">
-        <v>5.178</v>
+        <v>5.1779999999999999</v>
       </c>
       <c r="U27">
-        <v>0.8372000000000001</v>
+        <v>0.83720000000000006</v>
       </c>
       <c r="V27">
         <v>6.89</v>
@@ -3321,10 +3535,10 @@
         <v>31.8</v>
       </c>
       <c r="AC27">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="AD27">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="AE27" t="s">
         <v>100</v>
@@ -3332,8 +3546,14 @@
       <c r="AF27" t="s">
         <v>101</v>
       </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -3365,7 +3585,7 @@
         <v>5.234</v>
       </c>
       <c r="K28">
-        <v>1.3319</v>
+        <v>1.3319000000000001</v>
       </c>
       <c r="L28">
         <v>7.96</v>
@@ -3377,7 +3597,7 @@
         <v>5.37</v>
       </c>
       <c r="O28">
-        <v>4.156</v>
+        <v>4.1559999999999997</v>
       </c>
       <c r="P28">
         <v>0.9123</v>
@@ -3392,10 +3612,10 @@
         <v>3.74</v>
       </c>
       <c r="T28">
-        <v>5.547</v>
+        <v>5.5469999999999997</v>
       </c>
       <c r="U28">
-        <v>0.9471000000000001</v>
+        <v>0.94710000000000005</v>
       </c>
       <c r="V28">
         <v>7.17</v>
@@ -3430,8 +3650,14 @@
       <c r="AF28" t="s">
         <v>104</v>
       </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -3445,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3460,10 +3686,10 @@
         <v>30</v>
       </c>
       <c r="J29">
-        <v>5.105</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="K29">
-        <v>1.6077</v>
+        <v>1.6076999999999999</v>
       </c>
       <c r="L29">
         <v>7.98</v>
@@ -3475,10 +3701,10 @@
         <v>6.27</v>
       </c>
       <c r="O29">
-        <v>4.067</v>
+        <v>4.0670000000000002</v>
       </c>
       <c r="P29">
-        <v>0.7799</v>
+        <v>0.77990000000000004</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -3490,10 +3716,10 @@
         <v>4.21</v>
       </c>
       <c r="T29">
-        <v>5.393</v>
+        <v>5.3929999999999998</v>
       </c>
       <c r="U29">
-        <v>0.9656</v>
+        <v>0.96560000000000001</v>
       </c>
       <c r="V29">
         <v>6.72</v>
@@ -3514,7 +3740,7 @@
         <v>8.9</v>
       </c>
       <c r="AB29">
-        <v>36.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="AC29">
         <v>36.1</v>
@@ -3528,8 +3754,14 @@
       <c r="AF29" t="s">
         <v>62</v>
       </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -3561,7 +3793,7 @@
         <v>5.21</v>
       </c>
       <c r="K30">
-        <v>1.5092</v>
+        <v>1.5092000000000001</v>
       </c>
       <c r="L30">
         <v>7.95</v>
@@ -3585,13 +3817,13 @@
         <v>2.7</v>
       </c>
       <c r="S30">
-        <v>4.11</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="T30">
         <v>5.431</v>
       </c>
       <c r="U30">
-        <v>1.0557</v>
+        <v>1.0557000000000001</v>
       </c>
       <c r="V30">
         <v>6.88</v>
@@ -3615,7 +3847,7 @@
         <v>26.9</v>
       </c>
       <c r="AC30">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="AD30">
         <v>9.9</v>
@@ -3626,8 +3858,14 @@
       <c r="AF30" t="s">
         <v>108</v>
       </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -3659,7 +3897,7 @@
         <v>5.423</v>
       </c>
       <c r="K31">
-        <v>1.1484</v>
+        <v>1.1484000000000001</v>
       </c>
       <c r="L31">
         <v>7.86</v>
@@ -3671,10 +3909,10 @@
         <v>5.84</v>
       </c>
       <c r="O31">
-        <v>4.095</v>
+        <v>4.0949999999999998</v>
       </c>
       <c r="P31">
-        <v>0.8535</v>
+        <v>0.85350000000000004</v>
       </c>
       <c r="Q31">
         <v>6.6</v>
@@ -3686,10 +3924,10 @@
         <v>4.45</v>
       </c>
       <c r="T31">
-        <v>5.504</v>
+        <v>5.5039999999999996</v>
       </c>
       <c r="U31">
-        <v>0.7491</v>
+        <v>0.74909999999999999</v>
       </c>
       <c r="V31">
         <v>7</v>
@@ -3701,7 +3939,7 @@
         <v>3.8</v>
       </c>
       <c r="Y31">
-        <v>4.100000000000001</v>
+        <v>4.1000000000000014</v>
       </c>
       <c r="Z31" t="s">
         <v>109</v>
@@ -3710,10 +3948,10 @@
         <v>6.5</v>
       </c>
       <c r="AB31">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="AC31">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="AD31">
         <v>8.9</v>
@@ -3723,6 +3961,12 @@
       </c>
       <c r="AF31" t="s">
         <v>111</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Quartille stats/Poligrafo_detailed_stats/BD_results_detailed.xlsx
+++ b/Quartille stats/Poligrafo_detailed_stats/BD_results_detailed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karan\Desktop\FakeNews-App\Quartille stats\Poligrafo_detailed_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B2995B-83C0-473F-A846-C97248115672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27413C30-F197-4237-90A7-3D74E1582523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="125">
   <si>
     <t>Label</t>
   </si>
@@ -362,6 +362,39 @@
   </si>
   <si>
     <t>neg_contrast</t>
+  </si>
+  <si>
+    <t>n_sents</t>
+  </si>
+  <si>
+    <t>informality</t>
+  </si>
+  <si>
+    <t>verbs_ratio</t>
+  </si>
+  <si>
+    <t>adjs_ratio</t>
+  </si>
+  <si>
+    <t>nouns_ratio</t>
+  </si>
+  <si>
+    <t>content_diversity</t>
+  </si>
+  <si>
+    <t>redundancy</t>
+  </si>
+  <si>
+    <t>pausality</t>
+  </si>
+  <si>
+    <t>expressivity</t>
+  </si>
+  <si>
+    <t>non_immediacy</t>
+  </si>
+  <si>
+    <t>modifiers_ratio</t>
   </si>
 </sst>
 </file>
@@ -737,15 +770,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH31"/>
+  <dimension ref="A1:AU31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AU4" sqref="AU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -848,8 +881,41 @@
       <c r="AH1" t="s">
         <v>113</v>
       </c>
+      <c r="AI1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -952,8 +1018,41 @@
       <c r="AH2">
         <v>1</v>
       </c>
+      <c r="AI2">
+        <v>5</v>
+      </c>
+      <c r="AJ2">
+        <v>4.29</v>
+      </c>
+      <c r="AK2">
+        <v>12.86</v>
+      </c>
+      <c r="AL2">
+        <v>2.1399999999999997</v>
+      </c>
+      <c r="AM2">
+        <v>26.43</v>
+      </c>
+      <c r="AN2">
+        <v>63.49</v>
+      </c>
+      <c r="AO2">
+        <v>12</v>
+      </c>
+      <c r="AP2">
+        <v>3</v>
+      </c>
+      <c r="AQ2">
+        <v>14.549999999999999</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>5.71</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1056,8 +1155,41 @@
       <c r="AH3">
         <v>0</v>
       </c>
+      <c r="AI3">
+        <v>4</v>
+      </c>
+      <c r="AJ3">
+        <v>20.830000000000002</v>
+      </c>
+      <c r="AK3">
+        <v>12.5</v>
+      </c>
+      <c r="AL3">
+        <v>8.33</v>
+      </c>
+      <c r="AM3">
+        <v>21.88</v>
+      </c>
+      <c r="AN3">
+        <v>85.71</v>
+      </c>
+      <c r="AO3">
+        <v>9.5</v>
+      </c>
+      <c r="AP3">
+        <v>2.75</v>
+      </c>
+      <c r="AQ3">
+        <v>48.480000000000004</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>16.669999999999998</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1160,8 +1292,44 @@
       <c r="AH4">
         <v>0</v>
       </c>
+      <c r="AI4">
+        <v>2</v>
+      </c>
+      <c r="AJ4">
+        <v>2.27</v>
+      </c>
+      <c r="AK4">
+        <v>11.360000000000001</v>
+      </c>
+      <c r="AL4">
+        <v>9.09</v>
+      </c>
+      <c r="AM4">
+        <v>29.549999999999997</v>
+      </c>
+      <c r="AN4">
+        <v>90.91</v>
+      </c>
+      <c r="AO4">
+        <v>11.5</v>
+      </c>
+      <c r="AP4">
+        <v>2</v>
+      </c>
+      <c r="AQ4">
+        <v>22.220000000000002</v>
+      </c>
+      <c r="AR4">
+        <v>4.55</v>
+      </c>
+      <c r="AS4">
+        <v>9.09</v>
+      </c>
+      <c r="AU4">
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1264,8 +1432,41 @@
       <c r="AH5">
         <v>0</v>
       </c>
+      <c r="AI5">
+        <v>5</v>
+      </c>
+      <c r="AJ5">
+        <v>10.530000000000001</v>
+      </c>
+      <c r="AK5">
+        <v>21.05</v>
+      </c>
+      <c r="AL5">
+        <v>3.95</v>
+      </c>
+      <c r="AM5">
+        <v>21.05</v>
+      </c>
+      <c r="AN5">
+        <v>67.5</v>
+      </c>
+      <c r="AO5">
+        <v>5.8</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>25</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>10.530000000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1368,8 +1569,41 @@
       <c r="AH6">
         <v>0</v>
       </c>
+      <c r="AI6">
+        <v>7</v>
+      </c>
+      <c r="AJ6">
+        <v>1.79</v>
+      </c>
+      <c r="AK6">
+        <v>15.479999999999999</v>
+      </c>
+      <c r="AL6">
+        <v>8.33</v>
+      </c>
+      <c r="AM6">
+        <v>29.17</v>
+      </c>
+      <c r="AN6">
+        <v>86.87</v>
+      </c>
+      <c r="AO6">
+        <v>11.571400000000001</v>
+      </c>
+      <c r="AP6">
+        <v>3.7143000000000002</v>
+      </c>
+      <c r="AQ6">
+        <v>32</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>14.29</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1472,8 +1706,41 @@
       <c r="AH7">
         <v>0</v>
       </c>
+      <c r="AI7">
+        <v>13</v>
+      </c>
+      <c r="AJ7">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="AK7">
+        <v>10.97</v>
+      </c>
+      <c r="AL7">
+        <v>6.45</v>
+      </c>
+      <c r="AM7">
+        <v>32.9</v>
+      </c>
+      <c r="AN7">
+        <v>65</v>
+      </c>
+      <c r="AO7">
+        <v>5.2308000000000003</v>
+      </c>
+      <c r="AP7">
+        <v>2.1537999999999999</v>
+      </c>
+      <c r="AQ7">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>7.7399999999999993</v>
+      </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1576,8 +1843,41 @@
       <c r="AH8">
         <v>1</v>
       </c>
+      <c r="AI8">
+        <v>8</v>
+      </c>
+      <c r="AJ8">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="AK8">
+        <v>17.96</v>
+      </c>
+      <c r="AL8">
+        <v>7.7700000000000005</v>
+      </c>
+      <c r="AM8">
+        <v>28.64</v>
+      </c>
+      <c r="AN8">
+        <v>71.899999999999991</v>
+      </c>
+      <c r="AO8">
+        <v>12.25</v>
+      </c>
+      <c r="AP8">
+        <v>2.125</v>
+      </c>
+      <c r="AQ8">
+        <v>26.040000000000003</v>
+      </c>
+      <c r="AR8">
+        <v>0.49</v>
+      </c>
+      <c r="AS8">
+        <v>12.139999999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1680,8 +1980,41 @@
       <c r="AH9">
         <v>2</v>
       </c>
+      <c r="AI9">
+        <v>15</v>
+      </c>
+      <c r="AJ9">
+        <v>6.63</v>
+      </c>
+      <c r="AK9">
+        <v>15.36</v>
+      </c>
+      <c r="AL9">
+        <v>6.93</v>
+      </c>
+      <c r="AM9">
+        <v>34.04</v>
+      </c>
+      <c r="AN9">
+        <v>68</v>
+      </c>
+      <c r="AO9">
+        <v>10.066700000000001</v>
+      </c>
+      <c r="AP9">
+        <v>3.6667000000000001</v>
+      </c>
+      <c r="AQ9">
+        <v>21.95</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>10.84</v>
+      </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1784,8 +2117,41 @@
       <c r="AH10">
         <v>0</v>
       </c>
+      <c r="AI10">
+        <v>3</v>
+      </c>
+      <c r="AJ10">
+        <v>3.5700000000000003</v>
+      </c>
+      <c r="AK10">
+        <v>12.5</v>
+      </c>
+      <c r="AL10">
+        <v>2.68</v>
+      </c>
+      <c r="AM10">
+        <v>26.790000000000003</v>
+      </c>
+      <c r="AN10">
+        <v>92</v>
+      </c>
+      <c r="AO10">
+        <v>16</v>
+      </c>
+      <c r="AP10">
+        <v>2.6667000000000001</v>
+      </c>
+      <c r="AQ10">
+        <v>13.639999999999999</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>5.36</v>
+      </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1888,8 +2254,41 @@
       <c r="AH11">
         <v>0</v>
       </c>
+      <c r="AI11">
+        <v>10</v>
+      </c>
+      <c r="AJ11">
+        <v>1.87</v>
+      </c>
+      <c r="AK11">
+        <v>20</v>
+      </c>
+      <c r="AL11">
+        <v>6.25</v>
+      </c>
+      <c r="AM11">
+        <v>27.500000000000004</v>
+      </c>
+      <c r="AN11">
+        <v>66.34</v>
+      </c>
+      <c r="AO11">
+        <v>6.7</v>
+      </c>
+      <c r="AP11">
+        <v>2.6</v>
+      </c>
+      <c r="AQ11">
+        <v>32.89</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>15.620000000000001</v>
+      </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1992,8 +2391,41 @@
       <c r="AH12">
         <v>0</v>
       </c>
+      <c r="AI12">
+        <v>7</v>
+      </c>
+      <c r="AJ12">
+        <v>2.76</v>
+      </c>
+      <c r="AK12">
+        <v>14.29</v>
+      </c>
+      <c r="AL12">
+        <v>5.99</v>
+      </c>
+      <c r="AM12">
+        <v>32.26</v>
+      </c>
+      <c r="AN12">
+        <v>66.67</v>
+      </c>
+      <c r="AO12">
+        <v>15.857100000000001</v>
+      </c>
+      <c r="AP12">
+        <v>4.2857000000000003</v>
+      </c>
+      <c r="AQ12">
+        <v>21.78</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>10.14</v>
+      </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2096,8 +2528,41 @@
       <c r="AH13">
         <v>1</v>
       </c>
+      <c r="AI13">
+        <v>7</v>
+      </c>
+      <c r="AJ13">
+        <v>2.4</v>
+      </c>
+      <c r="AK13">
+        <v>16.8</v>
+      </c>
+      <c r="AL13">
+        <v>8</v>
+      </c>
+      <c r="AM13">
+        <v>28.000000000000004</v>
+      </c>
+      <c r="AN13">
+        <v>86.67</v>
+      </c>
+      <c r="AO13">
+        <v>7.8571</v>
+      </c>
+      <c r="AP13">
+        <v>2.7143000000000002</v>
+      </c>
+      <c r="AQ13">
+        <v>33.93</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>15.2</v>
+      </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2200,8 +2665,41 @@
       <c r="AH14">
         <v>0</v>
       </c>
+      <c r="AI14">
+        <v>10</v>
+      </c>
+      <c r="AJ14">
+        <v>3.7699999999999996</v>
+      </c>
+      <c r="AK14">
+        <v>11.95</v>
+      </c>
+      <c r="AL14">
+        <v>10.69</v>
+      </c>
+      <c r="AM14">
+        <v>32.08</v>
+      </c>
+      <c r="AN14">
+        <v>72.92</v>
+      </c>
+      <c r="AO14">
+        <v>6.3</v>
+      </c>
+      <c r="AP14">
+        <v>1.8</v>
+      </c>
+      <c r="AQ14">
+        <v>37.14</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>16.350000000000001</v>
+      </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -2304,8 +2802,41 @@
       <c r="AH15">
         <v>0</v>
       </c>
+      <c r="AI15">
+        <v>17</v>
+      </c>
+      <c r="AJ15">
+        <v>9.42</v>
+      </c>
+      <c r="AK15">
+        <v>10.280000000000001</v>
+      </c>
+      <c r="AL15">
+        <v>7.07</v>
+      </c>
+      <c r="AM15">
+        <v>32.550000000000004</v>
+      </c>
+      <c r="AN15">
+        <v>78.95</v>
+      </c>
+      <c r="AO15">
+        <v>12.7059</v>
+      </c>
+      <c r="AP15">
+        <v>4.3529</v>
+      </c>
+      <c r="AQ15">
+        <v>23.5</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>10.059999999999999</v>
+      </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -2408,8 +2939,41 @@
       <c r="AH16">
         <v>0</v>
       </c>
+      <c r="AI16">
+        <v>39</v>
+      </c>
+      <c r="AJ16">
+        <v>6.3299999999999992</v>
+      </c>
+      <c r="AK16">
+        <v>14.21</v>
+      </c>
+      <c r="AL16">
+        <v>9.99</v>
+      </c>
+      <c r="AM16">
+        <v>30.520000000000003</v>
+      </c>
+      <c r="AN16">
+        <v>59.199999999999996</v>
+      </c>
+      <c r="AO16">
+        <v>8.4614999999999991</v>
+      </c>
+      <c r="AP16">
+        <v>2.3077000000000001</v>
+      </c>
+      <c r="AQ16">
+        <v>33.33</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>14.91</v>
+      </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2512,8 +3076,41 @@
       <c r="AH17">
         <v>0</v>
       </c>
+      <c r="AI17">
+        <v>20</v>
+      </c>
+      <c r="AJ17">
+        <v>2.88</v>
+      </c>
+      <c r="AK17">
+        <v>18.529999999999998</v>
+      </c>
+      <c r="AL17">
+        <v>2.88</v>
+      </c>
+      <c r="AM17">
+        <v>26.840000000000003</v>
+      </c>
+      <c r="AN17">
+        <v>67.03</v>
+      </c>
+      <c r="AO17">
+        <v>8.15</v>
+      </c>
+      <c r="AP17">
+        <v>1.6</v>
+      </c>
+      <c r="AQ17">
+        <v>28.17</v>
+      </c>
+      <c r="AR17">
+        <v>1.28</v>
+      </c>
+      <c r="AS17">
+        <v>12.78</v>
+      </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2616,8 +3213,41 @@
       <c r="AH18">
         <v>0</v>
       </c>
+      <c r="AI18">
+        <v>38</v>
+      </c>
+      <c r="AJ18">
+        <v>12.389999999999999</v>
+      </c>
+      <c r="AK18">
+        <v>13.450000000000001</v>
+      </c>
+      <c r="AL18">
+        <v>4.96</v>
+      </c>
+      <c r="AM18">
+        <v>33.269999999999996</v>
+      </c>
+      <c r="AN18">
+        <v>60.8</v>
+      </c>
+      <c r="AO18">
+        <v>6.4474</v>
+      </c>
+      <c r="AP18">
+        <v>3.2631999999999999</v>
+      </c>
+      <c r="AQ18">
+        <v>22.73</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>10.620000000000001</v>
+      </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2720,8 +3350,41 @@
       <c r="AH19">
         <v>0</v>
       </c>
+      <c r="AI19">
+        <v>9</v>
+      </c>
+      <c r="AJ19">
+        <v>13.76</v>
+      </c>
+      <c r="AK19">
+        <v>14.29</v>
+      </c>
+      <c r="AL19">
+        <v>7.41</v>
+      </c>
+      <c r="AM19">
+        <v>30.69</v>
+      </c>
+      <c r="AN19">
+        <v>78.5</v>
+      </c>
+      <c r="AO19">
+        <v>9.8888999999999996</v>
+      </c>
+      <c r="AP19">
+        <v>2.3332999999999999</v>
+      </c>
+      <c r="AQ19">
+        <v>25.88</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>11.64</v>
+      </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2824,8 +3487,41 @@
       <c r="AH20">
         <v>0</v>
       </c>
+      <c r="AI20">
+        <v>8</v>
+      </c>
+      <c r="AJ20">
+        <v>2.3800000000000003</v>
+      </c>
+      <c r="AK20">
+        <v>16.669999999999998</v>
+      </c>
+      <c r="AL20">
+        <v>4.17</v>
+      </c>
+      <c r="AM20">
+        <v>32.74</v>
+      </c>
+      <c r="AN20">
+        <v>66.67</v>
+      </c>
+      <c r="AO20">
+        <v>10.75</v>
+      </c>
+      <c r="AP20">
+        <v>3</v>
+      </c>
+      <c r="AQ20">
+        <v>15.659999999999998</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>7.7399999999999993</v>
+      </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -2928,8 +3624,41 @@
       <c r="AH21">
         <v>0</v>
       </c>
+      <c r="AI21">
+        <v>4</v>
+      </c>
+      <c r="AJ21">
+        <v>8.84</v>
+      </c>
+      <c r="AK21">
+        <v>17.669999999999998</v>
+      </c>
+      <c r="AL21">
+        <v>7.4399999999999995</v>
+      </c>
+      <c r="AM21">
+        <v>22.33</v>
+      </c>
+      <c r="AN21">
+        <v>67.569999999999993</v>
+      </c>
+      <c r="AO21">
+        <v>26.75</v>
+      </c>
+      <c r="AP21">
+        <v>1.75</v>
+      </c>
+      <c r="AQ21">
+        <v>29.07</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>11.63</v>
+      </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -3032,8 +3761,41 @@
       <c r="AH22">
         <v>0</v>
       </c>
+      <c r="AI22">
+        <v>8</v>
+      </c>
+      <c r="AJ22">
+        <v>3.83</v>
+      </c>
+      <c r="AK22">
+        <v>14.75</v>
+      </c>
+      <c r="AL22">
+        <v>4.92</v>
+      </c>
+      <c r="AM22">
+        <v>33.879999999999995</v>
+      </c>
+      <c r="AN22">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="AO22">
+        <v>11.375</v>
+      </c>
+      <c r="AP22">
+        <v>3</v>
+      </c>
+      <c r="AQ22">
+        <v>10.11</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>4.92</v>
+      </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3136,8 +3898,41 @@
       <c r="AH23">
         <v>1</v>
       </c>
+      <c r="AI23">
+        <v>4</v>
+      </c>
+      <c r="AJ23">
+        <v>20.75</v>
+      </c>
+      <c r="AK23">
+        <v>20.75</v>
+      </c>
+      <c r="AL23">
+        <v>5.66</v>
+      </c>
+      <c r="AM23">
+        <v>30.19</v>
+      </c>
+      <c r="AN23">
+        <v>80.650000000000006</v>
+      </c>
+      <c r="AO23">
+        <v>5.5</v>
+      </c>
+      <c r="AP23">
+        <v>1</v>
+      </c>
+      <c r="AQ23">
+        <v>14.81</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>7.55</v>
+      </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -3240,8 +4035,41 @@
       <c r="AH24">
         <v>1</v>
       </c>
+      <c r="AI24">
+        <v>2</v>
+      </c>
+      <c r="AJ24">
+        <v>1.59</v>
+      </c>
+      <c r="AK24">
+        <v>22.220000000000002</v>
+      </c>
+      <c r="AL24">
+        <v>3.17</v>
+      </c>
+      <c r="AM24">
+        <v>23.810000000000002</v>
+      </c>
+      <c r="AN24">
+        <v>91.67</v>
+      </c>
+      <c r="AO24">
+        <v>15</v>
+      </c>
+      <c r="AP24">
+        <v>2</v>
+      </c>
+      <c r="AQ24">
+        <v>24.14</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>11.110000000000001</v>
+      </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3344,8 +4172,41 @@
       <c r="AH25">
         <v>0</v>
       </c>
+      <c r="AI25">
+        <v>5</v>
+      </c>
+      <c r="AJ25">
+        <v>1.8900000000000001</v>
+      </c>
+      <c r="AK25">
+        <v>16.04</v>
+      </c>
+      <c r="AL25">
+        <v>13.209999999999999</v>
+      </c>
+      <c r="AM25">
+        <v>27.36</v>
+      </c>
+      <c r="AN25">
+        <v>73.02</v>
+      </c>
+      <c r="AO25">
+        <v>10</v>
+      </c>
+      <c r="AP25">
+        <v>2</v>
+      </c>
+      <c r="AQ25">
+        <v>36.96</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>16.04</v>
+      </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -3448,8 +4309,41 @@
       <c r="AH26">
         <v>0</v>
       </c>
+      <c r="AI26">
+        <v>4</v>
+      </c>
+      <c r="AJ26">
+        <v>10.290000000000001</v>
+      </c>
+      <c r="AK26">
+        <v>20.59</v>
+      </c>
+      <c r="AL26">
+        <v>2.94</v>
+      </c>
+      <c r="AM26">
+        <v>38.24</v>
+      </c>
+      <c r="AN26">
+        <v>77.27000000000001</v>
+      </c>
+      <c r="AO26">
+        <v>8</v>
+      </c>
+      <c r="AP26">
+        <v>1.75</v>
+      </c>
+      <c r="AQ26">
+        <v>10</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>5.88</v>
+      </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -3552,8 +4446,41 @@
       <c r="AH27">
         <v>0</v>
       </c>
+      <c r="AI27">
+        <v>4</v>
+      </c>
+      <c r="AJ27">
+        <v>6.98</v>
+      </c>
+      <c r="AK27">
+        <v>12.21</v>
+      </c>
+      <c r="AL27">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AM27">
+        <v>27.33</v>
+      </c>
+      <c r="AN27">
+        <v>80.430000000000007</v>
+      </c>
+      <c r="AO27">
+        <v>19.75</v>
+      </c>
+      <c r="AP27">
+        <v>8</v>
+      </c>
+      <c r="AQ27">
+        <v>35.29</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>13.950000000000001</v>
+      </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -3656,8 +4583,41 @@
       <c r="AH28">
         <v>0</v>
       </c>
+      <c r="AI28">
+        <v>4</v>
+      </c>
+      <c r="AJ28">
+        <v>3.85</v>
+      </c>
+      <c r="AK28">
+        <v>21.15</v>
+      </c>
+      <c r="AL28">
+        <v>2.88</v>
+      </c>
+      <c r="AM28">
+        <v>26.919999999999998</v>
+      </c>
+      <c r="AN28">
+        <v>80.300000000000011</v>
+      </c>
+      <c r="AO28">
+        <v>9</v>
+      </c>
+      <c r="AP28">
+        <v>3.25</v>
+      </c>
+      <c r="AQ28">
+        <v>32</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>15.379999999999999</v>
+      </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -3760,8 +4720,41 @@
       <c r="AH29">
         <v>1</v>
       </c>
+      <c r="AI29">
+        <v>10</v>
+      </c>
+      <c r="AJ29">
+        <v>4.17</v>
+      </c>
+      <c r="AK29">
+        <v>19.64</v>
+      </c>
+      <c r="AL29">
+        <v>5.9499999999999993</v>
+      </c>
+      <c r="AM29">
+        <v>26.790000000000003</v>
+      </c>
+      <c r="AN29">
+        <v>68.42</v>
+      </c>
+      <c r="AO29">
+        <v>7.6</v>
+      </c>
+      <c r="AP29">
+        <v>1.3</v>
+      </c>
+      <c r="AQ29">
+        <v>21.790000000000003</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>10.119999999999999</v>
+      </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -3864,8 +4857,41 @@
       <c r="AH30">
         <v>1</v>
       </c>
+      <c r="AI30">
+        <v>9</v>
+      </c>
+      <c r="AJ30">
+        <v>6.25</v>
+      </c>
+      <c r="AK30">
+        <v>18.75</v>
+      </c>
+      <c r="AL30">
+        <v>11.06</v>
+      </c>
+      <c r="AM30">
+        <v>25</v>
+      </c>
+      <c r="AN30">
+        <v>69.84</v>
+      </c>
+      <c r="AO30">
+        <v>10</v>
+      </c>
+      <c r="AP30">
+        <v>2.3332999999999999</v>
+      </c>
+      <c r="AQ30">
+        <v>38.46</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>16.830000000000002</v>
+      </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -3967,6 +4993,39 @@
       </c>
       <c r="AH31">
         <v>1</v>
+      </c>
+      <c r="AI31">
+        <v>22</v>
+      </c>
+      <c r="AJ31">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="AK31">
+        <v>21.029999999999998</v>
+      </c>
+      <c r="AL31">
+        <v>5.52</v>
+      </c>
+      <c r="AM31">
+        <v>27.93</v>
+      </c>
+      <c r="AN31">
+        <v>70.39</v>
+      </c>
+      <c r="AO31">
+        <v>4.6364000000000001</v>
+      </c>
+      <c r="AP31">
+        <v>2.3635999999999999</v>
+      </c>
+      <c r="AQ31">
+        <v>26.06</v>
+      </c>
+      <c r="AR31">
+        <v>1.72</v>
+      </c>
+      <c r="AS31">
+        <v>12.76</v>
       </c>
     </row>
   </sheetData>
